--- a/static/output/Excel/LRcountsxl2-sol2.xlsx
+++ b/static/output/Excel/LRcountsxl2-sol2.xlsx
@@ -5,18 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adolphus\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adolphus\Documents\GitHub\ACTL20004-ACTL90021-Tutorials\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353658A2-F0AE-42C2-8EA1-09D72D9B0005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AEDC1B0-B55C-4325-8D6E-6446576C67A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="CL" sheetId="2" r:id="rId2"/>
     <sheet name="CL IBNR" sheetId="3" r:id="rId3"/>
-    <sheet name="comparison" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>Period</t>
   </si>
@@ -179,27 +178,6 @@
   <si>
     <t>Ult Freq</t>
   </si>
-  <si>
-    <t>True rectangle:</t>
-  </si>
-  <si>
-    <t>A/E</t>
-  </si>
-  <si>
-    <t>Ultimate</t>
-  </si>
-  <si>
-    <t>Exposure based methods will work better for highly leveraged cases</t>
-  </si>
-  <si>
-    <t>Heatmap of A/E:</t>
-  </si>
-  <si>
-    <t>(average)</t>
-  </si>
-  <si>
-    <t>This is  worse than exposure.</t>
-  </si>
 </sst>
 </file>
 
@@ -305,7 +283,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -360,12 +338,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -409,7 +381,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -465,10 +437,6 @@
     <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4463,7 +4431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
@@ -9305,1406 +9273,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3451E297-5AC6-45B2-9BAC-4C231ADCD3B3}">
-  <dimension ref="A1:AA35"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N20:N23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="S1" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C2" s="39">
-        <v>156</v>
-      </c>
-      <c r="D2" s="39">
-        <v>383</v>
-      </c>
-      <c r="E2" s="39">
-        <v>220</v>
-      </c>
-      <c r="F2" s="39">
-        <v>86</v>
-      </c>
-      <c r="G2" s="39">
-        <v>35</v>
-      </c>
-      <c r="H2" s="39">
-        <v>25</v>
-      </c>
-      <c r="I2" s="39">
-        <v>8</v>
-      </c>
-      <c r="J2" s="39">
-        <v>4</v>
-      </c>
-      <c r="K2" s="39">
-        <v>2</v>
-      </c>
-      <c r="L2" s="39">
-        <v>0</v>
-      </c>
-      <c r="M2" s="39">
-        <v>0</v>
-      </c>
-      <c r="N2" s="39">
-        <v>0</v>
-      </c>
-      <c r="O2" s="39">
-        <v>0</v>
-      </c>
-      <c r="P2" s="41">
-        <f>SUM(C2:N2)</f>
-        <v>919</v>
-      </c>
-      <c r="Q2" s="43">
-        <f t="shared" ref="Q2:Q17" si="0">S2-P2</f>
-        <v>0</v>
-      </c>
-      <c r="R2" s="49" t="e">
-        <f>Q2/'CL IBNR'!R4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S2" s="50">
-        <f t="shared" ref="S2:S17" si="1">SUM(C2:O2)</f>
-        <v>919</v>
-      </c>
-      <c r="T2" s="49">
-        <f>S2/'CL IBNR'!S4</f>
-        <v>0.99928086251588144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C3" s="39">
-        <v>158</v>
-      </c>
-      <c r="D3" s="39">
-        <v>445</v>
-      </c>
-      <c r="E3" s="39">
-        <v>262</v>
-      </c>
-      <c r="F3" s="39">
-        <v>132</v>
-      </c>
-      <c r="G3" s="39">
-        <v>83</v>
-      </c>
-      <c r="H3" s="39">
-        <v>24</v>
-      </c>
-      <c r="I3" s="39">
-        <v>9</v>
-      </c>
-      <c r="J3" s="39">
-        <v>4</v>
-      </c>
-      <c r="K3" s="39">
-        <v>1</v>
-      </c>
-      <c r="L3" s="39">
-        <v>0</v>
-      </c>
-      <c r="M3" s="39">
-        <v>0</v>
-      </c>
-      <c r="N3" s="39">
-        <v>0</v>
-      </c>
-      <c r="O3" s="39">
-        <v>0</v>
-      </c>
-      <c r="P3" s="41">
-        <f>SUM(C3:N3)</f>
-        <v>1118</v>
-      </c>
-      <c r="Q3" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R3" s="49" t="e">
-        <f>Q3/'CL IBNR'!R5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S3" s="50">
-        <f t="shared" si="1"/>
-        <v>1118</v>
-      </c>
-      <c r="T3" s="49">
-        <f>S3/'CL IBNR'!S5</f>
-        <v>0.99928086251588144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="39">
-        <v>137</v>
-      </c>
-      <c r="D4" s="39">
-        <v>417</v>
-      </c>
-      <c r="E4" s="39">
-        <v>257</v>
-      </c>
-      <c r="F4" s="39">
-        <v>167</v>
-      </c>
-      <c r="G4" s="39">
-        <v>70</v>
-      </c>
-      <c r="H4" s="39">
-        <v>33</v>
-      </c>
-      <c r="I4" s="39">
-        <v>19</v>
-      </c>
-      <c r="J4" s="39">
-        <v>6</v>
-      </c>
-      <c r="K4" s="39">
-        <v>5</v>
-      </c>
-      <c r="L4" s="39">
-        <v>1</v>
-      </c>
-      <c r="M4" s="39">
-        <v>1</v>
-      </c>
-      <c r="N4" s="39">
-        <v>0</v>
-      </c>
-      <c r="O4" s="39">
-        <v>0</v>
-      </c>
-      <c r="P4" s="41">
-        <f>SUM(C4:N4)</f>
-        <v>1113</v>
-      </c>
-      <c r="Q4" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R4" s="49" t="e">
-        <f>Q4/'CL IBNR'!R6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S4" s="50">
-        <f t="shared" si="1"/>
-        <v>1113</v>
-      </c>
-      <c r="T4" s="49">
-        <f>S4/'CL IBNR'!S6</f>
-        <v>0.99928086251588144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C5" s="39">
-        <v>123</v>
-      </c>
-      <c r="D5" s="39">
-        <v>415</v>
-      </c>
-      <c r="E5" s="39">
-        <v>305</v>
-      </c>
-      <c r="F5" s="39">
-        <v>145</v>
-      </c>
-      <c r="G5" s="39">
-        <v>77</v>
-      </c>
-      <c r="H5" s="39">
-        <v>33</v>
-      </c>
-      <c r="I5" s="39">
-        <v>17</v>
-      </c>
-      <c r="J5" s="39">
-        <v>8</v>
-      </c>
-      <c r="K5" s="39">
-        <v>4</v>
-      </c>
-      <c r="L5" s="39">
-        <v>2</v>
-      </c>
-      <c r="M5" s="39">
-        <v>2</v>
-      </c>
-      <c r="N5" s="39">
-        <v>0</v>
-      </c>
-      <c r="O5" s="39">
-        <v>0</v>
-      </c>
-      <c r="P5" s="41">
-        <f>SUM(C5:N5)</f>
-        <v>1131</v>
-      </c>
-      <c r="Q5" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R5" s="49" t="e">
-        <f>Q5/'CL IBNR'!R7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S5" s="50">
-        <f t="shared" si="1"/>
-        <v>1131</v>
-      </c>
-      <c r="T5" s="49">
-        <f>S5/'CL IBNR'!S7</f>
-        <v>0.99928086251588133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C6" s="39">
-        <v>114</v>
-      </c>
-      <c r="D6" s="39">
-        <v>405</v>
-      </c>
-      <c r="E6" s="39">
-        <v>333</v>
-      </c>
-      <c r="F6" s="39">
-        <v>165</v>
-      </c>
-      <c r="G6" s="39">
-        <v>98</v>
-      </c>
-      <c r="H6" s="39">
-        <v>41</v>
-      </c>
-      <c r="I6" s="39">
-        <v>16</v>
-      </c>
-      <c r="J6" s="39">
-        <v>9</v>
-      </c>
-      <c r="K6" s="39">
-        <v>1</v>
-      </c>
-      <c r="L6" s="39">
-        <v>5</v>
-      </c>
-      <c r="M6" s="39">
-        <v>0</v>
-      </c>
-      <c r="N6" s="39">
-        <v>0</v>
-      </c>
-      <c r="O6" s="39">
-        <v>0</v>
-      </c>
-      <c r="P6" s="41">
-        <f>SUM(C6:N6)</f>
-        <v>1187</v>
-      </c>
-      <c r="Q6" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R6" s="49" t="e">
-        <f>Q6/'CL IBNR'!R8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S6" s="50">
-        <f t="shared" si="1"/>
-        <v>1187</v>
-      </c>
-      <c r="T6" s="49">
-        <f>S6/'CL IBNR'!S8</f>
-        <v>0.99928086251588144</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C7" s="39">
-        <v>100</v>
-      </c>
-      <c r="D7" s="39">
-        <v>430</v>
-      </c>
-      <c r="E7" s="39">
-        <v>358</v>
-      </c>
-      <c r="F7" s="39">
-        <v>201</v>
-      </c>
-      <c r="G7" s="39">
-        <v>98</v>
-      </c>
-      <c r="H7" s="39">
-        <v>51</v>
-      </c>
-      <c r="I7" s="39">
-        <v>21</v>
-      </c>
-      <c r="J7" s="39">
-        <v>10</v>
-      </c>
-      <c r="K7" s="39">
-        <v>6</v>
-      </c>
-      <c r="L7" s="39">
-        <v>2</v>
-      </c>
-      <c r="M7" s="39">
-        <v>1</v>
-      </c>
-      <c r="N7" s="39">
-        <v>0</v>
-      </c>
-      <c r="O7" s="39">
-        <v>0</v>
-      </c>
-      <c r="P7" s="41">
-        <f>SUM(C7:M7)</f>
-        <v>1278</v>
-      </c>
-      <c r="Q7" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="49">
-        <f>Q7/'CL IBNR'!R9</f>
-        <v>0</v>
-      </c>
-      <c r="S7" s="50">
-        <f t="shared" si="1"/>
-        <v>1278</v>
-      </c>
-      <c r="T7" s="49">
-        <f>S7/'CL IBNR'!S9</f>
-        <v>0.99928086251588144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C8" s="39">
-        <v>96</v>
-      </c>
-      <c r="D8" s="39">
-        <v>427</v>
-      </c>
-      <c r="E8" s="39">
-        <v>396</v>
-      </c>
-      <c r="F8" s="39">
-        <v>214</v>
-      </c>
-      <c r="G8" s="39">
-        <v>137</v>
-      </c>
-      <c r="H8" s="39">
-        <v>60</v>
-      </c>
-      <c r="I8" s="39">
-        <v>32</v>
-      </c>
-      <c r="J8" s="39">
-        <v>13</v>
-      </c>
-      <c r="K8" s="39">
-        <v>6</v>
-      </c>
-      <c r="L8" s="39">
-        <v>3</v>
-      </c>
-      <c r="M8" s="39">
-        <v>1</v>
-      </c>
-      <c r="N8" s="39">
-        <v>0</v>
-      </c>
-      <c r="O8" s="39">
-        <v>0</v>
-      </c>
-      <c r="P8" s="41">
-        <f>SUM(C8:L8)</f>
-        <v>1384</v>
-      </c>
-      <c r="Q8" s="43">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="R8" s="49">
-        <f>Q8/'CL IBNR'!R10</f>
-        <v>0.43694183839678119</v>
-      </c>
-      <c r="S8" s="50">
-        <f t="shared" si="1"/>
-        <v>1385</v>
-      </c>
-      <c r="T8" s="49">
-        <f>S8/'CL IBNR'!S10</f>
-        <v>0.99907044313231963</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C9" s="39">
-        <v>67</v>
-      </c>
-      <c r="D9" s="39">
-        <v>408</v>
-      </c>
-      <c r="E9" s="39">
-        <v>425</v>
-      </c>
-      <c r="F9" s="39">
-        <v>250</v>
-      </c>
-      <c r="G9" s="39">
-        <v>144</v>
-      </c>
-      <c r="H9" s="39">
-        <v>68</v>
-      </c>
-      <c r="I9" s="39">
-        <v>30</v>
-      </c>
-      <c r="J9" s="39">
-        <v>11</v>
-      </c>
-      <c r="K9" s="39">
-        <v>9</v>
-      </c>
-      <c r="L9" s="39">
-        <v>1</v>
-      </c>
-      <c r="M9" s="39">
-        <v>0</v>
-      </c>
-      <c r="N9" s="39">
-        <v>0</v>
-      </c>
-      <c r="O9" s="39">
-        <v>0</v>
-      </c>
-      <c r="P9" s="41">
-        <f>SUM(C9:K9)</f>
-        <v>1412</v>
-      </c>
-      <c r="Q9" s="43">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="R9" s="49">
-        <f>Q9/'CL IBNR'!R11</f>
-        <v>0.18632876802721685</v>
-      </c>
-      <c r="S9" s="50">
-        <f t="shared" si="1"/>
-        <v>1413</v>
-      </c>
-      <c r="T9" s="49">
-        <f>S9/'CL IBNR'!S11</f>
-        <v>0.99691903492381417</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C10" s="39">
-        <v>63</v>
-      </c>
-      <c r="D10" s="39">
-        <v>426</v>
-      </c>
-      <c r="E10" s="39">
-        <v>435</v>
-      </c>
-      <c r="F10" s="39">
-        <v>260</v>
-      </c>
-      <c r="G10" s="39">
-        <v>131</v>
-      </c>
-      <c r="H10" s="39">
-        <v>73</v>
-      </c>
-      <c r="I10" s="39">
-        <v>30</v>
-      </c>
-      <c r="J10" s="39">
-        <v>15</v>
-      </c>
-      <c r="K10" s="39">
-        <v>6</v>
-      </c>
-      <c r="L10" s="39">
-        <v>2</v>
-      </c>
-      <c r="M10" s="39">
-        <v>0</v>
-      </c>
-      <c r="N10" s="39">
-        <v>0</v>
-      </c>
-      <c r="O10" s="39">
-        <v>0</v>
-      </c>
-      <c r="P10" s="41">
-        <f>SUM(C10:J10)</f>
-        <v>1433</v>
-      </c>
-      <c r="Q10" s="43">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="R10" s="49">
-        <f>Q10/'CL IBNR'!R12</f>
-        <v>0.63849933536954506</v>
-      </c>
-      <c r="S10" s="50">
-        <f t="shared" si="1"/>
-        <v>1441</v>
-      </c>
-      <c r="T10" s="49">
-        <f>S10/'CL IBNR'!S12</f>
-        <v>0.99686662975543217</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C11" s="39">
-        <v>60</v>
-      </c>
-      <c r="D11" s="39">
-        <v>381</v>
-      </c>
-      <c r="E11" s="39">
-        <v>431</v>
-      </c>
-      <c r="F11" s="39">
-        <v>296</v>
-      </c>
-      <c r="G11" s="39">
-        <v>160</v>
-      </c>
-      <c r="H11" s="39">
-        <v>80</v>
-      </c>
-      <c r="I11" s="39">
-        <v>57</v>
-      </c>
-      <c r="J11" s="39">
-        <v>21</v>
-      </c>
-      <c r="K11" s="39">
-        <v>6</v>
-      </c>
-      <c r="L11" s="39">
-        <v>5</v>
-      </c>
-      <c r="M11" s="39">
-        <v>2</v>
-      </c>
-      <c r="N11" s="39">
-        <v>2</v>
-      </c>
-      <c r="O11" s="39">
-        <v>1</v>
-      </c>
-      <c r="P11" s="41">
-        <f>SUM(C11:I11)</f>
-        <v>1465</v>
-      </c>
-      <c r="Q11" s="43">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="R11" s="49">
-        <f>Q11/'CL IBNR'!R13</f>
-        <v>1.2532812967934635</v>
-      </c>
-      <c r="S11" s="50">
-        <f t="shared" si="1"/>
-        <v>1502</v>
-      </c>
-      <c r="T11" s="49">
-        <f>S11/'CL IBNR'!S13</f>
-        <v>1.0050032687110002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C12" s="39">
-        <v>37</v>
-      </c>
-      <c r="D12" s="39">
-        <v>342</v>
-      </c>
-      <c r="E12" s="39">
-        <v>428</v>
-      </c>
-      <c r="F12" s="39">
-        <v>292</v>
-      </c>
-      <c r="G12" s="39">
-        <v>179</v>
-      </c>
-      <c r="H12" s="39">
-        <v>94</v>
-      </c>
-      <c r="I12" s="39">
-        <v>42</v>
-      </c>
-      <c r="J12" s="39">
-        <v>17</v>
-      </c>
-      <c r="K12" s="39">
-        <v>16</v>
-      </c>
-      <c r="L12" s="39">
-        <v>2</v>
-      </c>
-      <c r="M12" s="39">
-        <v>3</v>
-      </c>
-      <c r="N12" s="39">
-        <v>1</v>
-      </c>
-      <c r="O12" s="39">
-        <v>0</v>
-      </c>
-      <c r="P12" s="41">
-        <f>SUM(C12:H12)</f>
-        <v>1372</v>
-      </c>
-      <c r="Q12" s="43">
-        <f t="shared" si="0"/>
-        <v>81</v>
-      </c>
-      <c r="R12" s="49">
-        <f>Q12/'CL IBNR'!R14</f>
-        <v>1.2654936739478231</v>
-      </c>
-      <c r="S12" s="50">
-        <f t="shared" si="1"/>
-        <v>1453</v>
-      </c>
-      <c r="T12" s="49">
-        <f>S12/'CL IBNR'!S14</f>
-        <v>1.0118337603295531</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C13" s="39">
-        <v>31</v>
-      </c>
-      <c r="D13" s="39">
-        <v>393</v>
-      </c>
-      <c r="E13" s="39">
-        <v>426</v>
-      </c>
-      <c r="F13" s="39">
-        <v>390</v>
-      </c>
-      <c r="G13" s="39">
-        <v>209</v>
-      </c>
-      <c r="H13" s="39">
-        <v>127</v>
-      </c>
-      <c r="I13" s="39">
-        <v>60</v>
-      </c>
-      <c r="J13" s="39">
-        <v>19</v>
-      </c>
-      <c r="K13" s="39">
-        <v>18</v>
-      </c>
-      <c r="L13" s="39">
-        <v>6</v>
-      </c>
-      <c r="M13" s="39">
-        <v>0</v>
-      </c>
-      <c r="N13" s="39">
-        <v>3</v>
-      </c>
-      <c r="O13" s="39">
-        <v>0</v>
-      </c>
-      <c r="P13" s="41">
-        <f>SUM(C13:G13)</f>
-        <v>1449</v>
-      </c>
-      <c r="Q13" s="43">
-        <f t="shared" si="0"/>
-        <v>233</v>
-      </c>
-      <c r="R13" s="49">
-        <f>Q13/'CL IBNR'!R15</f>
-        <v>1.4282589584217911</v>
-      </c>
-      <c r="S13" s="50">
-        <f t="shared" si="1"/>
-        <v>1682</v>
-      </c>
-      <c r="T13" s="49">
-        <f>S13/'CL IBNR'!S15</f>
-        <v>1.0433364996728589</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C14" s="39">
-        <v>30</v>
-      </c>
-      <c r="D14" s="39">
-        <v>310</v>
-      </c>
-      <c r="E14" s="39">
-        <v>438</v>
-      </c>
-      <c r="F14" s="39">
-        <v>369</v>
-      </c>
-      <c r="G14" s="39">
-        <v>206</v>
-      </c>
-      <c r="H14" s="39">
-        <v>106</v>
-      </c>
-      <c r="I14" s="39">
-        <v>56</v>
-      </c>
-      <c r="J14" s="39">
-        <v>38</v>
-      </c>
-      <c r="K14" s="39">
-        <v>15</v>
-      </c>
-      <c r="L14" s="39">
-        <v>11</v>
-      </c>
-      <c r="M14" s="39">
-        <v>1</v>
-      </c>
-      <c r="N14" s="39">
-        <v>3</v>
-      </c>
-      <c r="O14" s="39">
-        <v>1</v>
-      </c>
-      <c r="P14" s="41">
-        <f>SUM(C14:F14)</f>
-        <v>1147</v>
-      </c>
-      <c r="Q14" s="43">
-        <f t="shared" si="0"/>
-        <v>437</v>
-      </c>
-      <c r="R14" s="49">
-        <f>Q14/'CL IBNR'!R16</f>
-        <v>1.3301172080312933</v>
-      </c>
-      <c r="S14" s="50">
-        <f t="shared" si="1"/>
-        <v>1584</v>
-      </c>
-      <c r="T14" s="49">
-        <f>S14/'CL IBNR'!S16</f>
-        <v>1.0735034920972284</v>
-      </c>
-      <c r="U14" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="V14" s="52"/>
-      <c r="W14" s="52"/>
-      <c r="X14" s="52"/>
-      <c r="Y14" s="52"/>
-      <c r="Z14" s="52"/>
-      <c r="AA14" s="52"/>
-    </row>
-    <row r="15" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C15" s="39">
-        <v>38</v>
-      </c>
-      <c r="D15" s="39">
-        <v>335</v>
-      </c>
-      <c r="E15" s="39">
-        <v>465</v>
-      </c>
-      <c r="F15" s="39">
-        <v>381</v>
-      </c>
-      <c r="G15" s="39">
-        <v>213</v>
-      </c>
-      <c r="H15" s="39">
-        <v>136</v>
-      </c>
-      <c r="I15" s="39">
-        <v>73</v>
-      </c>
-      <c r="J15" s="39">
-        <v>35</v>
-      </c>
-      <c r="K15" s="39">
-        <v>20</v>
-      </c>
-      <c r="L15" s="39">
-        <v>7</v>
-      </c>
-      <c r="M15" s="39">
-        <v>3</v>
-      </c>
-      <c r="N15" s="39">
-        <v>0</v>
-      </c>
-      <c r="O15" s="39">
-        <v>1</v>
-      </c>
-      <c r="P15" s="41">
-        <f>SUM(C15:E15)</f>
-        <v>838</v>
-      </c>
-      <c r="Q15" s="43">
-        <f t="shared" si="0"/>
-        <v>869</v>
-      </c>
-      <c r="R15" s="49">
-        <f>Q15/'CL IBNR'!R17</f>
-        <v>1.2320353968560847</v>
-      </c>
-      <c r="S15" s="50">
-        <f t="shared" si="1"/>
-        <v>1707</v>
-      </c>
-      <c r="T15" s="49">
-        <f>S15/'CL IBNR'!S17</f>
-        <v>1.1060449761135378</v>
-      </c>
-      <c r="U15" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="V15" s="52"/>
-      <c r="W15" s="52"/>
-      <c r="X15" s="52"/>
-      <c r="Y15" s="52"/>
-      <c r="Z15" s="52"/>
-      <c r="AA15" s="52"/>
-    </row>
-    <row r="16" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C16" s="39">
-        <v>18</v>
-      </c>
-      <c r="D16" s="39">
-        <v>259</v>
-      </c>
-      <c r="E16" s="39">
-        <v>448</v>
-      </c>
-      <c r="F16" s="39">
-        <v>392</v>
-      </c>
-      <c r="G16" s="39">
-        <v>241</v>
-      </c>
-      <c r="H16" s="39">
-        <v>136</v>
-      </c>
-      <c r="I16" s="39">
-        <v>76</v>
-      </c>
-      <c r="J16" s="39">
-        <v>30</v>
-      </c>
-      <c r="K16" s="39">
-        <v>10</v>
-      </c>
-      <c r="L16" s="39">
-        <v>10</v>
-      </c>
-      <c r="M16" s="39">
-        <v>3</v>
-      </c>
-      <c r="N16" s="39">
-        <v>2</v>
-      </c>
-      <c r="O16" s="39">
-        <v>1</v>
-      </c>
-      <c r="P16" s="41">
-        <f>SUM(C16:D16)</f>
-        <v>277</v>
-      </c>
-      <c r="Q16" s="43">
-        <f t="shared" si="0"/>
-        <v>1349</v>
-      </c>
-      <c r="R16" s="49">
-        <f>Q16/'CL IBNR'!R18</f>
-        <v>1.6263924209309368</v>
-      </c>
-      <c r="S16" s="50">
-        <f t="shared" si="1"/>
-        <v>1626</v>
-      </c>
-      <c r="T16" s="49">
-        <f>S16/'CL IBNR'!S18</f>
-        <v>1.4695739656091458</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C17" s="39">
-        <v>16</v>
-      </c>
-      <c r="D17" s="39">
-        <v>319</v>
-      </c>
-      <c r="E17" s="39">
-        <v>461</v>
-      </c>
-      <c r="F17" s="39">
-        <v>405</v>
-      </c>
-      <c r="G17" s="39">
-        <v>247</v>
-      </c>
-      <c r="H17" s="39">
-        <v>165</v>
-      </c>
-      <c r="I17" s="39">
-        <v>87</v>
-      </c>
-      <c r="J17" s="39">
-        <v>48</v>
-      </c>
-      <c r="K17" s="39">
-        <v>19</v>
-      </c>
-      <c r="L17" s="39">
-        <v>4</v>
-      </c>
-      <c r="M17" s="39">
-        <v>5</v>
-      </c>
-      <c r="N17" s="39">
-        <v>5</v>
-      </c>
-      <c r="O17" s="39">
-        <v>0</v>
-      </c>
-      <c r="P17" s="41">
-        <f>SUM(C17)</f>
-        <v>16</v>
-      </c>
-      <c r="Q17" s="43">
-        <f t="shared" si="0"/>
-        <v>1765</v>
-      </c>
-      <c r="R17" s="49">
-        <f>Q17/'CL IBNR'!R19</f>
-        <v>2.452380175850748</v>
-      </c>
-      <c r="S17" s="50">
-        <f t="shared" si="1"/>
-        <v>1781</v>
-      </c>
-      <c r="T17" s="49">
-        <f>S17/'CL IBNR'!S19</f>
-        <v>2.4207942038220405</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="P18" s="6"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="49"/>
-      <c r="S18" s="3"/>
-    </row>
-    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="43">
-        <f>SUM(Q2:Q17)</f>
-        <v>4781</v>
-      </c>
-      <c r="R19" s="49">
-        <f>Q19/'CL IBNR'!R21</f>
-        <v>1.671210352102489</v>
-      </c>
-      <c r="S19" s="3"/>
-      <c r="T19" s="51">
-        <f>AVERAGE(T2:T17)</f>
-        <v>1.1324144655788886</v>
-      </c>
-      <c r="U19" s="51" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="N24">
-        <f>IF('CL IBNR'!N8&gt;0,N6/'CL IBNR'!N8,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="M25">
-        <f>IF('CL IBNR'!M9&gt;0,M7/'CL IBNR'!M9,"")</f>
-        <v>1</v>
-      </c>
-      <c r="N25">
-        <f>IF('CL IBNR'!N9&gt;0,N7/'CL IBNR'!N9,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="L26">
-        <f>IF('CL IBNR'!L10&gt;0,L8/'CL IBNR'!L10,"")</f>
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <f>IF('CL IBNR'!M10&gt;0,M8/'CL IBNR'!M10,"")</f>
-        <v>0.77417237112847714</v>
-      </c>
-      <c r="N26">
-        <f>IF('CL IBNR'!N10&gt;0,N8/'CL IBNR'!N10,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="K27">
-        <f>IF('CL IBNR'!K11&gt;0,K9/'CL IBNR'!K11,"")</f>
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <f>IF('CL IBNR'!L11&gt;0,L9/'CL IBNR'!L11,"")</f>
-        <v>0.33036921665966379</v>
-      </c>
-      <c r="M27">
-        <f>IF('CL IBNR'!M11&gt;0,M9/'CL IBNR'!M11,"")</f>
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <f>IF('CL IBNR'!N11&gt;0,N9/'CL IBNR'!N11,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="J28">
-        <f>IF('CL IBNR'!J12&gt;0,J10/'CL IBNR'!J12,"")</f>
-        <v>1</v>
-      </c>
-      <c r="K28">
-        <f>IF('CL IBNR'!K12&gt;0,K10/'CL IBNR'!K12,"")</f>
-        <v>0.85035416345837511</v>
-      </c>
-      <c r="L28">
-        <f>IF('CL IBNR'!L12&gt;0,L10/'CL IBNR'!L12,"")</f>
-        <v>0.64786559915413267</v>
-      </c>
-      <c r="M28">
-        <f>IF('CL IBNR'!M12&gt;0,M10/'CL IBNR'!M12,"")</f>
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <f>IF('CL IBNR'!N12&gt;0,N10/'CL IBNR'!N12,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I29">
-        <f>IF('CL IBNR'!I13&gt;0,I11/'CL IBNR'!I13,"")</f>
-        <v>1</v>
-      </c>
-      <c r="J29">
-        <f>IF('CL IBNR'!J13&gt;0,J11/'CL IBNR'!J13,"")</f>
-        <v>1.2674678867192606</v>
-      </c>
-      <c r="K29">
-        <f>IF('CL IBNR'!K13&gt;0,K11/'CL IBNR'!K13,"")</f>
-        <v>0.82247803141286968</v>
-      </c>
-      <c r="L29">
-        <f>IF('CL IBNR'!L13&gt;0,L11/'CL IBNR'!L13,"")</f>
-        <v>1.5665685120106247</v>
-      </c>
-      <c r="M29">
-        <f>IF('CL IBNR'!M13&gt;0,M11/'CL IBNR'!M13,"")</f>
-        <v>1.4362130476791035</v>
-      </c>
-      <c r="N29">
-        <f>IF('CL IBNR'!N13&gt;0,N11/'CL IBNR'!N13,"")</f>
-        <v>1.8608681850338997</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H30">
-        <f>IF('CL IBNR'!H14&gt;0,H12/'CL IBNR'!H14,"")</f>
-        <v>1</v>
-      </c>
-      <c r="I30">
-        <f>IF('CL IBNR'!I14&gt;0,I12/'CL IBNR'!I14,"")</f>
-        <v>1.1784495251309839</v>
-      </c>
-      <c r="J30">
-        <f>IF('CL IBNR'!J14&gt;0,J12/'CL IBNR'!J14,"")</f>
-        <v>1.0678557760797645</v>
-      </c>
-      <c r="K30">
-        <f>IF('CL IBNR'!K14&gt;0,K12/'CL IBNR'!K14,"")</f>
-        <v>2.2826485431291075</v>
-      </c>
-      <c r="L30">
-        <f>IF('CL IBNR'!L14&gt;0,L12/'CL IBNR'!L14,"")</f>
-        <v>0.65216185631916279</v>
-      </c>
-      <c r="M30">
-        <f>IF('CL IBNR'!M14&gt;0,M12/'CL IBNR'!M14,"")</f>
-        <v>2.2421059789193265</v>
-      </c>
-      <c r="N30">
-        <f>IF('CL IBNR'!N14&gt;0,N12/'CL IBNR'!N14,"")</f>
-        <v>0.96834836827483484</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G31">
-        <f>IF('CL IBNR'!G15&gt;0,G13/'CL IBNR'!G15,"")</f>
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <f>IF('CL IBNR'!H15&gt;0,H13/'CL IBNR'!H15,"")</f>
-        <v>1.3913462586231444</v>
-      </c>
-      <c r="I31">
-        <f>IF('CL IBNR'!I15&gt;0,I13/'CL IBNR'!I15,"")</f>
-        <v>1.4995736606614052</v>
-      </c>
-      <c r="J31">
-        <f>IF('CL IBNR'!J15&gt;0,J13/'CL IBNR'!J15,"")</f>
-        <v>1.0630951543134233</v>
-      </c>
-      <c r="K31">
-        <f>IF('CL IBNR'!K15&gt;0,K13/'CL IBNR'!K15,"")</f>
-        <v>2.2874227131292884</v>
-      </c>
-      <c r="L31">
-        <f>IF('CL IBNR'!L15&gt;0,L13/'CL IBNR'!L15,"")</f>
-        <v>1.7427356156324851</v>
-      </c>
-      <c r="M31">
-        <f>IF('CL IBNR'!M15&gt;0,M13/'CL IBNR'!M15,"")</f>
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <f>IF('CL IBNR'!N15&gt;0,N13/'CL IBNR'!N15,"")</f>
-        <v>2.5876631289921237</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F32">
-        <f>IF('CL IBNR'!F16&gt;0,F14/'CL IBNR'!F16,"")</f>
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <f>IF('CL IBNR'!G16&gt;0,G14/'CL IBNR'!G16,"")</f>
-        <v>1.1493677572085852</v>
-      </c>
-      <c r="H32">
-        <f>IF('CL IBNR'!H16&gt;0,H14/'CL IBNR'!H16,"")</f>
-        <v>1.2687826865037903</v>
-      </c>
-      <c r="I32">
-        <f>IF('CL IBNR'!I16&gt;0,I14/'CL IBNR'!I16,"")</f>
-        <v>1.5291653730915353</v>
-      </c>
-      <c r="J32">
-        <f>IF('CL IBNR'!J16&gt;0,J14/'CL IBNR'!J16,"")</f>
-        <v>2.3230149736032462</v>
-      </c>
-      <c r="K32">
-        <f>IF('CL IBNR'!K16&gt;0,K14/'CL IBNR'!K16,"")</f>
-        <v>2.082644088819142</v>
-      </c>
-      <c r="L32">
-        <f>IF('CL IBNR'!L16&gt;0,L14/'CL IBNR'!L16,"")</f>
-        <v>3.4907827120741572</v>
-      </c>
-      <c r="M32">
-        <f>IF('CL IBNR'!M16&gt;0,M14/'CL IBNR'!M16,"")</f>
-        <v>0.72734358847143954</v>
-      </c>
-      <c r="N32">
-        <f>IF('CL IBNR'!N16&gt;0,N14/'CL IBNR'!N16,"")</f>
-        <v>2.8272070335848358</v>
-      </c>
-    </row>
-    <row r="33" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="E33">
-        <f>IF('CL IBNR'!E17&gt;0,E15/'CL IBNR'!E17,"")</f>
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <f>IF('CL IBNR'!F17&gt;0,F15/'CL IBNR'!F17,"")</f>
-        <v>1.053360931400712</v>
-      </c>
-      <c r="G33">
-        <f>IF('CL IBNR'!G17&gt;0,G15/'CL IBNR'!G17,"")</f>
-        <v>1.1362198572174869</v>
-      </c>
-      <c r="H33">
-        <f>IF('CL IBNR'!H17&gt;0,H15/'CL IBNR'!H17,"")</f>
-        <v>1.5563643305494193</v>
-      </c>
-      <c r="I33">
-        <f>IF('CL IBNR'!I17&gt;0,I15/'CL IBNR'!I17,"")</f>
-        <v>1.9058129353618698</v>
-      </c>
-      <c r="J33">
-        <f>IF('CL IBNR'!J17&gt;0,J15/'CL IBNR'!J17,"")</f>
-        <v>2.0456316710915758</v>
-      </c>
-      <c r="K33">
-        <f>IF('CL IBNR'!K17&gt;0,K15/'CL IBNR'!K17,"")</f>
-        <v>2.654879271442848</v>
-      </c>
-      <c r="L33">
-        <f>IF('CL IBNR'!L17&gt;0,L15/'CL IBNR'!L17,"")</f>
-        <v>2.1238270769722321</v>
-      </c>
-      <c r="M33">
-        <f>IF('CL IBNR'!M17&gt;0,M15/'CL IBNR'!M17,"")</f>
-        <v>2.0861803559653183</v>
-      </c>
-      <c r="N33">
-        <f>IF('CL IBNR'!N17&gt;0,N15/'CL IBNR'!N17,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="D34">
-        <f>IF('CL IBNR'!D18&gt;0,D16/'CL IBNR'!D18,"")</f>
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <f>IF('CL IBNR'!E18&gt;0,E16/'CL IBNR'!E18,"")</f>
-        <v>1.3836738352714915</v>
-      </c>
-      <c r="F34">
-        <f>IF('CL IBNR'!F18&gt;0,F16/'CL IBNR'!F18,"")</f>
-        <v>1.5117150609857921</v>
-      </c>
-      <c r="G34">
-        <f>IF('CL IBNR'!G18&gt;0,G16/'CL IBNR'!G18,"")</f>
-        <v>1.793211255340782</v>
-      </c>
-      <c r="H34">
-        <f>IF('CL IBNR'!H18&gt;0,H16/'CL IBNR'!H18,"")</f>
-        <v>2.1709154571976268</v>
-      </c>
-      <c r="I34">
-        <f>IF('CL IBNR'!I18&gt;0,I16/'CL IBNR'!I18,"")</f>
-        <v>2.7675956827997608</v>
-      </c>
-      <c r="J34">
-        <f>IF('CL IBNR'!J18&gt;0,J16/'CL IBNR'!J18,"")</f>
-        <v>2.4457512902731358</v>
-      </c>
-      <c r="K34">
-        <f>IF('CL IBNR'!K18&gt;0,K16/'CL IBNR'!K18,"")</f>
-        <v>1.8515968061714216</v>
-      </c>
-      <c r="L34">
-        <f>IF('CL IBNR'!L18&gt;0,L16/'CL IBNR'!L18,"")</f>
-        <v>4.2320691510820589</v>
-      </c>
-      <c r="M34">
-        <f>IF('CL IBNR'!M18&gt;0,M16/'CL IBNR'!M18,"")</f>
-        <v>2.9099363769589761</v>
-      </c>
-      <c r="N34">
-        <f>IF('CL IBNR'!N18&gt;0,N16/'CL IBNR'!N18,"")</f>
-        <v>2.5135583856477446</v>
-      </c>
-    </row>
-    <row r="35" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C35">
-        <f>IF('CL IBNR'!C19&gt;0,C17/'CL IBNR'!C19,"")</f>
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <f>IF('CL IBNR'!D19&gt;0,D17/'CL IBNR'!D19,"")</f>
-        <v>1.8967090707964602</v>
-      </c>
-      <c r="E35">
-        <f>IF('CL IBNR'!E19&gt;0,E17/'CL IBNR'!E19,"")</f>
-        <v>2.1413106801650819</v>
-      </c>
-      <c r="F35">
-        <f>IF('CL IBNR'!F19&gt;0,F17/'CL IBNR'!F19,"")</f>
-        <v>2.348885998704429</v>
-      </c>
-      <c r="G35">
-        <f>IF('CL IBNR'!G19&gt;0,G17/'CL IBNR'!G19,"")</f>
-        <v>2.7639769048388043</v>
-      </c>
-      <c r="H35">
-        <f>IF('CL IBNR'!H19&gt;0,H17/'CL IBNR'!H19,"")</f>
-        <v>3.9610560678126441</v>
-      </c>
-      <c r="I35">
-        <f>IF('CL IBNR'!I19&gt;0,I17/'CL IBNR'!I19,"")</f>
-        <v>4.7646537737091847</v>
-      </c>
-      <c r="J35">
-        <f>IF('CL IBNR'!J19&gt;0,J17/'CL IBNR'!J19,"")</f>
-        <v>5.885119922917843</v>
-      </c>
-      <c r="K35">
-        <f>IF('CL IBNR'!K19&gt;0,K17/'CL IBNR'!K19,"")</f>
-        <v>5.2908209798970747</v>
-      </c>
-      <c r="L35">
-        <f>IF('CL IBNR'!L19&gt;0,L17/'CL IBNR'!L19,"")</f>
-        <v>2.5458674575019407</v>
-      </c>
-      <c r="M35">
-        <f>IF('CL IBNR'!M19&gt;0,M17/'CL IBNR'!M19,"")</f>
-        <v>7.2938241132067265</v>
-      </c>
-      <c r="N35">
-        <f>IF('CL IBNR'!N19&gt;0,N17/'CL IBNR'!N19,"")</f>
-        <v>9.450440003614359</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="C20:O35">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/static/output/Excel/LRcountsxl2-sol2.xlsx
+++ b/static/output/Excel/LRcountsxl2-sol2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adolphus\Documents\GitHub\ACTL20004-ACTL90021-Tutorials\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bavanzi/Dropbox/Mac (3)/Documents/GitHub/ACTL20004-ACTL90021-Tutorials/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AEDC1B0-B55C-4325-8D6E-6446576C67A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402B2BD2-C14B-444E-9717-D77A760076D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4880" yWindow="500" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -440,7 +440,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -458,7 +458,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1173,7 +1173,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1761,7 +1761,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1940,19 +1940,19 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="1">
-                  <c:v>9.6208951036593715E-2</c:v>
+                  <c:v>9.6139763573595563E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10443429238371953</c:v>
+                  <c:v>0.104359189769439</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.6149946135334272E-2</c:v>
+                  <c:v>9.6080801104972371E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10048064007652545</c:v>
+                  <c:v>0.10040838068181818</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.9451961696485541E-2</c:v>
+                  <c:v>9.9380442062960483E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>9.8839907192575405E-2</c:v>
@@ -2099,52 +2099,52 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="1">
-                  <c:v>9.6208951036593715E-2</c:v>
+                  <c:v>9.6207858969528798E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10443429238371953</c:v>
+                  <c:v>0.1044331069508681</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.6149946135334272E-2</c:v>
+                  <c:v>9.6148854738033543E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10048064007652545</c:v>
+                  <c:v>0.10047949952155101</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.9451961696485541E-2</c:v>
+                  <c:v>9.9450832818031534E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.8911037827470211E-2</c:v>
+                  <c:v>9.8909915089038875E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.10055771319602741</c:v>
+                  <c:v>0.10055621552339387</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.6907347038765981E-2</c:v>
+                  <c:v>9.6906535968075219E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1053900101154128</c:v>
+                  <c:v>0.10539426414346784</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.5643318976463942E-2</c:v>
+                  <c:v>9.5665245850726374E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.8201917634684444E-2</c:v>
+                  <c:v>9.828382388171833E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.7877219508335264E-2</c:v>
+                  <c:v>9.7958854937796644E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.276640735104788E-2</c:v>
+                  <c:v>9.2843780058831524E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.0491754774090785E-2</c:v>
+                  <c:v>9.0567230286174236E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.5497135947691826E-2</c:v>
+                  <c:v>6.5551764459294851E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.1464744730607017E-2</c:v>
+                  <c:v>4.1499328796854446E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4431,13 +4431,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>9559</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10713</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>11584</v>
       </c>
@@ -4596,7 +4596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>11264</v>
       </c>
@@ -4649,7 +4649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>11944</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>12930</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>13786</v>
       </c>
@@ -4808,7 +4808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>14626</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>13716</v>
       </c>
@@ -4914,7 +4914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>15626</v>
       </c>
@@ -4967,7 +4967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>14623</v>
       </c>
@@ -5020,7 +5020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>16471</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>15906</v>
       </c>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>17055</v>
       </c>
@@ -5179,7 +5179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>16893</v>
       </c>
@@ -5232,7 +5232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>17743</v>
       </c>
@@ -5294,19 +5294,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E10C4377-0FD2-44D8-9172-6982D35CBB3D}">
   <dimension ref="A1:R71"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G53" sqref="G53:H53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="29"/>
-    <col min="2" max="2" width="16.85546875" style="29" customWidth="1"/>
-    <col min="3" max="18" width="9.140625" style="29" customWidth="1"/>
-    <col min="19" max="16384" width="11.42578125" style="29"/>
+    <col min="1" max="1" width="11.5" style="29"/>
+    <col min="2" max="2" width="16.83203125" style="29" customWidth="1"/>
+    <col min="3" max="18" width="9.1640625" style="29" customWidth="1"/>
+    <col min="19" max="16384" width="11.5" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5326,7 +5326,7 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -5380,7 +5380,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -5396,7 +5396,7 @@
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
     </row>
-    <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>0</v>
       </c>
@@ -5463,7 +5463,7 @@
       </c>
       <c r="R4" s="10"/>
     </row>
-    <row r="5" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>1</v>
       </c>
@@ -5527,7 +5527,7 @@
       <c r="Q5" s="9"/>
       <c r="R5" s="10"/>
     </row>
-    <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>2</v>
       </c>
@@ -5588,7 +5588,7 @@
       <c r="Q6" s="9"/>
       <c r="R6" s="10"/>
     </row>
-    <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>3</v>
       </c>
@@ -5646,7 +5646,7 @@
       <c r="Q7" s="9"/>
       <c r="R7" s="10"/>
     </row>
-    <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>4</v>
       </c>
@@ -5701,7 +5701,7 @@
       <c r="Q8" s="9"/>
       <c r="R8" s="10"/>
     </row>
-    <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>5</v>
       </c>
@@ -5753,7 +5753,7 @@
       <c r="Q9" s="9"/>
       <c r="R9" s="10"/>
     </row>
-    <row r="10" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>6</v>
       </c>
@@ -5802,7 +5802,7 @@
       <c r="Q10" s="9"/>
       <c r="R10" s="10"/>
     </row>
-    <row r="11" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>7</v>
       </c>
@@ -5848,7 +5848,7 @@
       <c r="Q11" s="9"/>
       <c r="R11" s="10"/>
     </row>
-    <row r="12" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>8</v>
       </c>
@@ -5891,7 +5891,7 @@
       <c r="Q12" s="9"/>
       <c r="R12" s="10"/>
     </row>
-    <row r="13" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>9</v>
       </c>
@@ -5931,7 +5931,7 @@
       <c r="Q13" s="9"/>
       <c r="R13" s="10"/>
     </row>
-    <row r="14" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>10</v>
       </c>
@@ -5968,7 +5968,7 @@
       <c r="Q14" s="9"/>
       <c r="R14" s="10"/>
     </row>
-    <row r="15" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>11</v>
       </c>
@@ -6002,7 +6002,7 @@
       <c r="Q15" s="9"/>
       <c r="R15" s="10"/>
     </row>
-    <row r="16" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>12</v>
       </c>
@@ -6033,7 +6033,7 @@
       <c r="Q16" s="9"/>
       <c r="R16" s="10"/>
     </row>
-    <row r="17" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>13</v>
       </c>
@@ -6061,7 +6061,7 @@
       <c r="Q17" s="9"/>
       <c r="R17" s="10"/>
     </row>
-    <row r="18" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>14</v>
       </c>
@@ -6086,7 +6086,7 @@
       <c r="Q18" s="9"/>
       <c r="R18" s="10"/>
     </row>
-    <row r="19" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>15</v>
       </c>
@@ -6108,7 +6108,7 @@
       <c r="Q19" s="9"/>
       <c r="R19" s="10"/>
     </row>
-    <row r="20" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -6123,7 +6123,7 @@
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
     </row>
-    <row r="21" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -6143,7 +6143,7 @@
       <c r="Q21" s="11"/>
       <c r="R21" s="11"/>
     </row>
-    <row r="22" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>3</v>
       </c>
@@ -6160,7 +6160,7 @@
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
     </row>
-    <row r="23" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -6175,7 +6175,7 @@
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
     </row>
-    <row r="24" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>4</v>
       </c>
@@ -6244,7 +6244,7 @@
       </c>
       <c r="R24" s="12"/>
     </row>
-    <row r="25" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="13"/>
@@ -6264,7 +6264,7 @@
       <c r="Q25" s="30"/>
       <c r="R25" s="30"/>
     </row>
-    <row r="26" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="B26" s="6" t="s">
         <v>31</v>
       </c>
@@ -6330,10 +6330,10 @@
       </c>
       <c r="R26" s="33"/>
     </row>
-    <row r="27" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="B27" s="6"/>
     </row>
-    <row r="28" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="B28" s="29" t="s">
         <v>32</v>
       </c>
@@ -6399,7 +6399,7 @@
       </c>
       <c r="R28" s="33"/>
     </row>
-    <row r="30" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>5</v>
       </c>
@@ -6449,13 +6449,13 @@
       <c r="M30" s="13"/>
       <c r="N30" s="13"/>
     </row>
-    <row r="31" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="O31" s="13"/>
       <c r="P31" s="13"/>
       <c r="Q31" s="13"/>
       <c r="R31" s="13"/>
     </row>
-    <row r="32" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
       <c r="B32" s="6" t="s">
         <v>31</v>
@@ -6507,7 +6507,7 @@
       <c r="Q32" s="30"/>
       <c r="R32" s="30"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B34" s="29" t="s">
         <v>32</v>
       </c>
@@ -6552,7 +6552,7 @@
         <v>1.0005932957579353</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>6</v>
       </c>
@@ -6612,7 +6612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="13"/>
@@ -6629,7 +6629,7 @@
       <c r="N37" s="13"/>
       <c r="O37" s="30"/>
     </row>
-    <row r="38" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="B38" s="29" t="s">
         <v>31</v>
       </c>
@@ -6686,12 +6686,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="P39" s="13"/>
       <c r="Q39" s="30"/>
       <c r="R39" s="30"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B40" s="29" t="s">
         <v>32</v>
       </c>
@@ -6751,15 +6751,15 @@
       <c r="Q40" s="30"/>
       <c r="R40" s="30"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R41" s="30"/>
     </row>
-    <row r="42" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="P42" s="30"/>
       <c r="Q42" s="30"/>
       <c r="R42" s="13"/>
     </row>
-    <row r="43" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="16"/>
@@ -6778,7 +6778,7 @@
       <c r="P43" s="13"/>
       <c r="Q43" s="13"/>
     </row>
-    <row r="44" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>7</v>
       </c>
@@ -6836,12 +6836,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A45" s="29" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="17" t="s">
         <v>7</v>
       </c>
@@ -6868,32 +6868,32 @@
       </c>
       <c r="H47" s="19">
         <f>H56</f>
-        <v>1.0259767128291359</v>
+        <v>1.0265970842150682</v>
       </c>
       <c r="I47" s="19">
         <f t="shared" ref="I47:L47" si="2">I56</f>
-        <v>1.0113095338666644</v>
+        <v>1.0115005545414997</v>
       </c>
       <c r="J47" s="19">
         <f t="shared" si="2"/>
-        <v>1.004923854574</v>
+        <v>1.0049728291151208</v>
       </c>
       <c r="K47" s="19">
         <f t="shared" si="2"/>
-        <v>1.0021437084986644</v>
+        <v>1.0021502466962753</v>
       </c>
       <c r="L47" s="19">
         <f t="shared" si="2"/>
-        <v>1.000933310693519</v>
+        <v>1.0009297646767679</v>
       </c>
       <c r="M47" s="20">
         <f>B63</f>
-        <v>1.0007196550150155</v>
+        <v>1.0007082958538909</v>
       </c>
       <c r="N47" s="21"/>
       <c r="O47" s="21"/>
     </row>
-    <row r="48" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="17" t="s">
         <v>9</v>
       </c>
@@ -6912,7 +6912,7 @@
       <c r="N48" s="7"/>
       <c r="O48" s="31"/>
     </row>
-    <row r="49" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -6929,7 +6929,7 @@
       <c r="N49" s="7"/>
       <c r="O49" s="31"/>
     </row>
-    <row r="50" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="22"/>
       <c r="B50" s="22"/>
       <c r="C50" s="22"/>
@@ -6946,7 +6946,7 @@
       <c r="N50" s="7"/>
       <c r="O50" s="31"/>
     </row>
-    <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="17" t="s">
         <v>10</v>
       </c>
@@ -6965,7 +6965,7 @@
       <c r="N51" s="7"/>
       <c r="O51" s="31"/>
     </row>
-    <row r="52" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -6984,7 +6984,7 @@
       <c r="N52" s="7"/>
       <c r="O52" s="31"/>
     </row>
-    <row r="53" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>12</v>
       </c>
@@ -6997,7 +6997,10 @@
         <f>LN(G44-1)</f>
         <v>-2.7647136656643529</v>
       </c>
-      <c r="H53" s="23"/>
+      <c r="H53" s="23">
+        <f>LN(H44-1)</f>
+        <v>-3.5706155336201983</v>
+      </c>
       <c r="I53" s="23">
         <f>LN(I44-1)</f>
         <v>-4.6725891699910251</v>
@@ -7018,7 +7021,7 @@
       <c r="N53" s="7"/>
       <c r="O53" s="31"/>
     </row>
-    <row r="54" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -7037,13 +7040,13 @@
       <c r="N54" s="7"/>
       <c r="O54" s="31"/>
     </row>
-    <row r="55" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B55" s="7">
         <f>SLOPE(G53:L53,G2:L2)</f>
-        <v>-0.83155440124634517</v>
+        <v>-0.83840633859792457</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -7053,39 +7056,39 @@
       </c>
       <c r="G55" s="7">
         <f t="shared" ref="G55:L55" si="4">_xlfn.FORECAST.LINEAR(G2,$G$53:$L$53,$G$2:$L$2)</f>
-        <v>-2.8190004014756145</v>
+        <v>-2.7885473465797048</v>
       </c>
       <c r="H55" s="7">
         <f t="shared" si="4"/>
-        <v>-3.6505548027219596</v>
+        <v>-3.6269536851776296</v>
       </c>
       <c r="I55" s="7">
         <f t="shared" si="4"/>
-        <v>-4.4821092039683048</v>
+        <v>-4.4653600237755535</v>
       </c>
       <c r="J55" s="7">
         <f t="shared" si="4"/>
-        <v>-5.31366360521465</v>
+        <v>-5.3037663623734783</v>
       </c>
       <c r="K55" s="7">
         <f t="shared" si="4"/>
-        <v>-6.1452180064609951</v>
+        <v>-6.1421727009714031</v>
       </c>
       <c r="L55" s="7">
         <f t="shared" si="4"/>
-        <v>-6.9767724077073403</v>
+        <v>-6.9805790395693279</v>
       </c>
       <c r="M55" s="7"/>
       <c r="N55" s="7"/>
       <c r="O55" s="31"/>
     </row>
-    <row r="56" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B56" s="7">
         <f>INTERCEPT(G53:L53,G2:L2)</f>
-        <v>0.50721720350976618</v>
+        <v>0.56507800781199347</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -7095,33 +7098,33 @@
       </c>
       <c r="G56" s="24">
         <f>EXP(G55)+1</f>
-        <v>1.0596655545102864</v>
+        <v>1.0615105024884468</v>
       </c>
       <c r="H56" s="24">
         <f t="shared" ref="H56:L56" si="5">EXP(H55)+1</f>
-        <v>1.0259767128291359</v>
+        <v>1.0265970842150682</v>
       </c>
       <c r="I56" s="24">
         <f t="shared" si="5"/>
-        <v>1.0113095338666644</v>
+        <v>1.0115005545414997</v>
       </c>
       <c r="J56" s="24">
         <f t="shared" si="5"/>
-        <v>1.004923854574</v>
+        <v>1.0049728291151208</v>
       </c>
       <c r="K56" s="24">
         <f t="shared" si="5"/>
-        <v>1.0021437084986644</v>
+        <v>1.0021502466962753</v>
       </c>
       <c r="L56" s="24">
         <f t="shared" si="5"/>
-        <v>1.000933310693519</v>
+        <v>1.0009297646767679</v>
       </c>
       <c r="M56" s="7"/>
       <c r="N56" s="7"/>
       <c r="O56" s="31"/>
     </row>
-    <row r="57" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -7138,7 +7141,7 @@
       <c r="N57" s="7"/>
       <c r="O57" s="31"/>
     </row>
-    <row r="58" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -7155,7 +7158,7 @@
       <c r="N58" s="7"/>
       <c r="O58" s="31"/>
     </row>
-    <row r="59" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="17" t="s">
         <v>18</v>
       </c>
@@ -7174,13 +7177,13 @@
       <c r="N59" s="7"/>
       <c r="O59" s="31"/>
     </row>
-    <row r="60" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B60" s="7">
         <f>EXP(B56)</f>
-        <v>1.6606634704475272</v>
+        <v>1.7595850387471135</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -7196,13 +7199,13 @@
       <c r="N60" s="7"/>
       <c r="O60" s="31"/>
     </row>
-    <row r="61" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B61" s="7">
         <f>EXP(B55)</f>
-        <v>0.43537201727769842</v>
+        <v>0.43239907233831953</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -7218,13 +7221,13 @@
       <c r="N61" s="7"/>
       <c r="O61" s="31"/>
     </row>
-    <row r="62" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B62" s="25">
         <f>B60*B61^(10)/(1-B61)</f>
-        <v>7.196550150154594E-4</v>
+        <v>7.0829585389088547E-4</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -7240,13 +7243,13 @@
       <c r="N62" s="7"/>
       <c r="O62" s="31"/>
     </row>
-    <row r="63" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B63" s="7">
         <f>1+B62</f>
-        <v>1.0007196550150155</v>
+        <v>1.0007082958538909</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>23</v>
@@ -7264,7 +7267,7 @@
       <c r="N63" s="7"/>
       <c r="O63" s="31"/>
     </row>
-    <row r="64" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -7281,7 +7284,7 @@
       <c r="N64" s="7"/>
       <c r="O64" s="31"/>
     </row>
-    <row r="65" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="22"/>
       <c r="B65" s="22"/>
       <c r="C65" s="22"/>
@@ -7298,7 +7301,7 @@
       <c r="N65" s="22"/>
       <c r="O65" s="31"/>
     </row>
-    <row r="66" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="17" t="s">
         <v>24</v>
       </c>
@@ -7317,7 +7320,7 @@
       <c r="N66" s="7"/>
       <c r="O66" s="31"/>
     </row>
-    <row r="67" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="17">
@@ -7358,116 +7361,116 @@
       </c>
       <c r="O67" s="17"/>
     </row>
-    <row r="68" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B68" s="7"/>
       <c r="C68" s="26">
         <f>PRODUCT(C47:$M47)</f>
-        <v>45.981810359697526</v>
+        <v>46.020161927661782</v>
       </c>
       <c r="D68" s="9">
         <f>PRODUCT(D47:$M47)</f>
-        <v>3.9943794857919066</v>
+        <v>3.9977110361403168</v>
       </c>
       <c r="E68" s="9">
         <f>PRODUCT(E47:$M47)</f>
-        <v>1.8416907848115969</v>
+        <v>1.8432268645951098</v>
       </c>
       <c r="F68" s="9">
         <f>PRODUCT(F47:$M47)</f>
-        <v>1.2864363341985767</v>
+        <v>1.2875092987059933</v>
       </c>
       <c r="G68" s="9">
         <f>PRODUCT(G47:$M47)</f>
-        <v>1.1125850120923326</v>
+        <v>1.1135129742446161</v>
       </c>
       <c r="H68" s="9">
         <f>PRODUCT(H47:$M47)</f>
-        <v>1.0466520711166114</v>
+        <v>1.0475250412699466</v>
       </c>
       <c r="I68" s="9">
         <f>PRODUCT(I47:$M47)</f>
-        <v>1.0201518787209729</v>
+        <v>1.0203857554016724</v>
       </c>
       <c r="J68" s="9">
         <f>PRODUCT(J47:$M47)</f>
-        <v>1.0087434603928833</v>
+        <v>1.0087841779426414</v>
       </c>
       <c r="K68" s="9">
         <f>PRODUCT(K47:$M47)</f>
-        <v>1.0038008907854044</v>
+        <v>1.0037924894256858</v>
       </c>
       <c r="L68" s="9">
         <f>PRODUCT(L47:$M47)</f>
-        <v>1.0016536373702556</v>
+        <v>1.0016387190791245</v>
       </c>
       <c r="M68" s="9">
         <f>PRODUCT(M47:$M47)</f>
-        <v>1.0007196550150155</v>
+        <v>1.0007082958538909</v>
       </c>
       <c r="N68" s="6">
         <v>1</v>
       </c>
       <c r="O68" s="31"/>
     </row>
-    <row r="69" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B69" s="7"/>
       <c r="C69" s="27">
         <f>1/C68</f>
-        <v>2.1747730073639886E-2</v>
+        <v>2.1729606288041336E-2</v>
       </c>
       <c r="D69" s="28">
         <f>1/D68-1/C68</f>
-        <v>0.22860404635547044</v>
+        <v>0.22841353586499263</v>
       </c>
       <c r="E69" s="28">
         <f t="shared" ref="E69:N69" si="6">1/E68-1/D68</f>
-        <v>0.29262753814801012</v>
+        <v>0.29238367275407401</v>
       </c>
       <c r="F69" s="28">
         <f t="shared" si="6"/>
-        <v>0.23436191360187009</v>
+        <v>0.23416660470939232</v>
       </c>
       <c r="G69" s="28">
         <f t="shared" si="6"/>
-        <v>0.12146649359626083</v>
+        <v>0.12136526773591161</v>
       </c>
       <c r="H69" s="28">
         <f t="shared" si="6"/>
-        <v>5.6619614200073221E-2</v>
+        <v>5.6572429425158832E-2</v>
       </c>
       <c r="I69" s="28">
         <f t="shared" si="6"/>
-        <v>2.4818861535737646E-2</v>
+        <v>2.5390404207257578E-2</v>
       </c>
       <c r="J69" s="28">
         <f t="shared" si="6"/>
-        <v>1.1086127568420423E-2</v>
+        <v>1.1270790953929244E-2</v>
       </c>
       <c r="K69" s="28">
         <f t="shared" si="6"/>
-        <v>4.8811762031966133E-3</v>
+        <v>4.9295272704045212E-3</v>
       </c>
       <c r="L69" s="28">
         <f t="shared" si="6"/>
-        <v>2.1355913491839518E-3</v>
+        <v>2.1421227185167702E-3</v>
       </c>
       <c r="M69" s="28">
         <f t="shared" si="6"/>
-        <v>9.317698840182187E-4</v>
+        <v>9.2824354635845374E-4</v>
       </c>
       <c r="N69" s="28">
         <f t="shared" si="6"/>
-        <v>7.1913748411855938E-4</v>
+        <v>7.0779452596270165E-4</v>
       </c>
       <c r="O69" s="31"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C70" s="32" t="s">
         <v>28</v>
       </c>
@@ -7476,7 +7479,7 @@
       <c r="F70" s="32"/>
       <c r="G70" s="32"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C71" s="32" t="s">
         <v>29</v>
       </c>
@@ -7495,21 +7498,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C47778A-B2E5-42A3-85B8-5118780D0581}">
   <dimension ref="A1:U60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4:P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="6.42578125" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" customWidth="1"/>
+    <col min="3" max="3" width="6.5" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" customWidth="1"/>
     <col min="5" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="6.42578125" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="6.5" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -7536,7 +7539,7 @@
       </c>
       <c r="S1" s="3"/>
     </row>
-    <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
@@ -7594,7 +7597,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="6"/>
@@ -7615,7 +7618,7 @@
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
     </row>
-    <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>0</v>
       </c>
@@ -7666,31 +7669,31 @@
       </c>
       <c r="N4" s="40">
         <f>SUM($C4:M4)*(CL!M$47-1)</f>
-        <v>0.66136295879922113</v>
+        <v>0.65092388972571169</v>
       </c>
       <c r="O4" s="40"/>
       <c r="P4" s="41">
-        <f>SUM(C4:N4)</f>
-        <v>919.66136295879926</v>
+        <f>SUM(C4:M4)</f>
+        <v>919</v>
       </c>
       <c r="Q4" s="42">
         <f>P4/Data!A1</f>
-        <v>9.6208951036593715E-2</v>
+        <v>9.6139763573595563E-2</v>
       </c>
       <c r="R4" s="43">
         <f t="shared" ref="R4:R18" si="0">S4-P4</f>
-        <v>0</v>
+        <v>0.6509238897257319</v>
       </c>
       <c r="S4" s="43">
         <f t="shared" ref="S4:S18" si="1">SUM(C4:O4)</f>
-        <v>919.66136295879926</v>
+        <v>919.65092388972573</v>
       </c>
       <c r="T4" s="42">
         <f>S4/Data!A1</f>
-        <v>9.6208951036593715E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9.6207858969528798E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>1</v>
       </c>
@@ -7741,31 +7744,31 @@
       </c>
       <c r="N5" s="40">
         <f>SUM($C5:M5)*(CL!M$47-1)</f>
-        <v>0.80457430678730057</v>
+        <v>0.79187476464999529</v>
       </c>
       <c r="O5" s="40"/>
       <c r="P5" s="41">
-        <f>SUM(C5:N5)</f>
-        <v>1118.8045743067873</v>
+        <f t="shared" ref="P5:P9" si="2">SUM(C5:M5)</f>
+        <v>1118</v>
       </c>
       <c r="Q5" s="42">
         <f>P5/Data!A2</f>
-        <v>0.10443429238371953</v>
+        <v>0.104359189769439</v>
       </c>
       <c r="R5" s="43">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.79187476464994688</v>
       </c>
       <c r="S5" s="43">
         <f t="shared" si="1"/>
-        <v>1118.8045743067873</v>
+        <v>1118.7918747646499</v>
       </c>
       <c r="T5" s="42">
         <f>S5/Data!A2</f>
-        <v>0.10443429238371953</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.1044331069508681</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>2</v>
       </c>
@@ -7816,31 +7819,31 @@
       </c>
       <c r="N6" s="40">
         <f>SUM($C6:M6)*(CL!M$47-1)</f>
-        <v>0.8009760317122232</v>
+        <v>0.78833328538054093</v>
       </c>
       <c r="O6" s="40"/>
       <c r="P6" s="41">
-        <f>SUM(C6:N6)</f>
-        <v>1113.8009760317123</v>
+        <f t="shared" si="2"/>
+        <v>1113</v>
       </c>
       <c r="Q6" s="42">
         <f>P6/Data!A3</f>
-        <v>9.6149946135334272E-2</v>
+        <v>9.6080801104972371E-2</v>
       </c>
       <c r="R6" s="43">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.78833328538053138</v>
       </c>
       <c r="S6" s="43">
         <f t="shared" si="1"/>
-        <v>1113.8009760317123</v>
+        <v>1113.7883332853805</v>
       </c>
       <c r="T6" s="42">
         <f>S6/Data!A3</f>
-        <v>9.6149946135334272E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9.6148854738033543E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>3</v>
       </c>
@@ -7891,31 +7894,31 @@
       </c>
       <c r="N7" s="40">
         <f>SUM($C7:M7)*(CL!M$47-1)</f>
-        <v>0.81392982198250174</v>
+        <v>0.80108261075057663</v>
       </c>
       <c r="O7" s="40"/>
       <c r="P7" s="41">
-        <f>SUM(C7:N7)</f>
-        <v>1131.8139298219826</v>
+        <f t="shared" si="2"/>
+        <v>1131</v>
       </c>
       <c r="Q7" s="42">
         <f>P7/Data!A4</f>
-        <v>0.10048064007652545</v>
+        <v>0.10040838068181818</v>
       </c>
       <c r="R7" s="43">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.80108261075065457</v>
       </c>
       <c r="S7" s="43">
         <f t="shared" si="1"/>
-        <v>1131.8139298219826</v>
+        <v>1131.8010826107507</v>
       </c>
       <c r="T7" s="42">
         <f>S7/Data!A4</f>
-        <v>0.10048064007652545</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.10047949952155101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>4</v>
       </c>
@@ -7966,31 +7969,31 @@
       </c>
       <c r="N8" s="40">
         <f>SUM($C8:M8)*(CL!M$47-1)</f>
-        <v>0.85423050282336832</v>
+        <v>0.84074717856846548</v>
       </c>
       <c r="O8" s="40"/>
       <c r="P8" s="41">
-        <f>SUM(C8:N8)</f>
-        <v>1187.8542305028234</v>
+        <f t="shared" si="2"/>
+        <v>1187</v>
       </c>
       <c r="Q8" s="42">
         <f>P8/Data!A5</f>
-        <v>9.9451961696485541E-2</v>
+        <v>9.9380442062960483E-2</v>
       </c>
       <c r="R8" s="43">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.84074717856856296</v>
       </c>
       <c r="S8" s="43">
         <f t="shared" si="1"/>
-        <v>1187.8542305028234</v>
+        <v>1187.8407471785686</v>
       </c>
       <c r="T8" s="42">
         <f>S8/Data!A5</f>
-        <v>9.9451961696485541E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9.9450832818031534E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>5</v>
       </c>
@@ -8041,11 +8044,11 @@
       </c>
       <c r="N9" s="40">
         <f>SUM($C9:M9)*(CL!M$47-1)</f>
-        <v>0.91971910918977651</v>
+        <v>0.90520210127253486</v>
       </c>
       <c r="O9" s="40"/>
       <c r="P9" s="41">
-        <f>SUM(C9:M9)</f>
+        <f t="shared" si="2"/>
         <v>1278</v>
       </c>
       <c r="Q9" s="42">
@@ -8054,18 +8057,18 @@
       </c>
       <c r="R9" s="43">
         <f t="shared" si="0"/>
-        <v>0.91971910918982758</v>
+        <v>0.90520210127260725</v>
       </c>
       <c r="S9" s="43">
         <f t="shared" si="1"/>
-        <v>1278.9197191091898</v>
+        <v>1278.9052021012726</v>
       </c>
       <c r="T9" s="42">
         <f>S9/Data!A6</f>
-        <v>9.8911037827470211E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9.8909915089038875E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>6</v>
       </c>
@@ -8112,11 +8115,11 @@
       </c>
       <c r="M10" s="40">
         <f>SUM($C10:L10)*(CL!L$47-1)</f>
-        <v>1.2917019998302752</v>
+        <v>1.2867943126467232</v>
       </c>
       <c r="N10" s="40">
         <f>SUM($C10:M10)*(CL!M$47-1)</f>
-        <v>0.99693212060350023</v>
+        <v>0.9811928928614253</v>
       </c>
       <c r="O10" s="40"/>
       <c r="P10" s="41">
@@ -8129,18 +8132,18 @@
       </c>
       <c r="R10" s="43">
         <f t="shared" si="0"/>
-        <v>2.288634120433926</v>
+        <v>2.2679872055080068</v>
       </c>
       <c r="S10" s="43">
         <f t="shared" si="1"/>
-        <v>1386.2886341204339</v>
+        <v>1386.267987205508</v>
       </c>
       <c r="T10" s="42">
         <f>S10/Data!A7</f>
-        <v>0.10055771319602741</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.10055621552339387</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>7</v>
       </c>
@@ -8183,15 +8186,15 @@
       </c>
       <c r="L11" s="40">
         <f>SUM($C11:K11)*(CL!K$47-1)</f>
-        <v>3.0269164001141462</v>
+        <v>3.0361483351406982</v>
       </c>
       <c r="M11" s="40">
         <f>SUM($C11:L11)*(CL!L$47-1)</f>
-        <v>1.3206597526934214</v>
+        <v>1.3156506270716648</v>
       </c>
       <c r="N11" s="40">
         <f>SUM($C11:M11)*(CL!M$47-1)</f>
-        <v>1.0192816361833799</v>
+        <v>1.0031961068558133</v>
       </c>
       <c r="O11" s="40"/>
       <c r="P11" s="41">
@@ -8204,18 +8207,18 @@
       </c>
       <c r="R11" s="43">
         <f t="shared" si="0"/>
-        <v>5.366857788991183</v>
+        <v>5.3549950690680816</v>
       </c>
       <c r="S11" s="43">
         <f t="shared" si="1"/>
-        <v>1417.3668577889912</v>
+        <v>1417.3549950690681</v>
       </c>
       <c r="T11" s="42">
         <f>S11/Data!A8</f>
-        <v>9.6907347038765981E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9.6906535968075219E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>8</v>
       </c>
@@ -8254,19 +8257,19 @@
       </c>
       <c r="K12" s="40">
         <f>SUM($C12:J12)*(CL!J$47-1)</f>
-        <v>7.0558836045420277</v>
+        <v>7.1260641219680467</v>
       </c>
       <c r="L12" s="40">
         <f>SUM($C12:K12)*(CL!K$47-1)</f>
-        <v>3.0870600362347425</v>
+        <v>3.0966263115981869</v>
       </c>
       <c r="M12" s="40">
         <f>SUM($C12:L12)*(CL!L$47-1)</f>
-        <v>1.3469007415764029</v>
+        <v>1.341857478275011</v>
       </c>
       <c r="N12" s="40">
         <f>SUM($C12:M12)*(CL!M$47-1)</f>
-        <v>1.0395343606486829</v>
+        <v>1.0231790799636995</v>
       </c>
       <c r="O12" s="40"/>
       <c r="P12" s="41">
@@ -8279,18 +8282,18 @@
       </c>
       <c r="R12" s="43">
         <f t="shared" si="0"/>
-        <v>12.529378743001871</v>
+        <v>12.587726991804857</v>
       </c>
       <c r="S12" s="43">
         <f t="shared" si="1"/>
-        <v>1445.5293787430019</v>
+        <v>1445.5877269918049</v>
       </c>
       <c r="T12" s="42">
         <f>S12/Data!A9</f>
-        <v>0.1053900101154128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.10539426414346784</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>9</v>
       </c>
@@ -8325,23 +8328,23 @@
       </c>
       <c r="J13" s="40">
         <f>SUM($C13:I13)*(CL!I$47-1)</f>
-        <v>16.568467114663413</v>
+        <v>16.848312403297022</v>
       </c>
       <c r="K13" s="40">
         <f>SUM($C13:J13)*(CL!J$47-1)</f>
-        <v>7.2950276734967332</v>
+        <v>7.3689784321116765</v>
       </c>
       <c r="L13" s="40">
         <f>SUM($C13:K13)*(CL!K$47-1)</f>
-        <v>3.1916893271285725</v>
+        <v>3.2021845596548633</v>
       </c>
       <c r="M13" s="40">
         <f>SUM($C13:L13)*(CL!L$47-1)</f>
-        <v>1.392551058655237</v>
+        <v>1.3875989111427558</v>
       </c>
       <c r="N13" s="40">
         <f>SUM($C13:M13)*(CL!M$47-1)</f>
-        <v>1.0747671522814313</v>
+        <v>1.0580573572439402</v>
       </c>
       <c r="O13" s="40"/>
       <c r="P13" s="41">
@@ -8354,18 +8357,18 @@
       </c>
       <c r="R13" s="43">
         <f t="shared" si="0"/>
-        <v>29.522502326225549</v>
+        <v>29.865131663450256</v>
       </c>
       <c r="S13" s="43">
         <f t="shared" si="1"/>
-        <v>1494.5225023262255</v>
+        <v>1494.8651316634503</v>
       </c>
       <c r="T13" s="42">
         <f>S13/Data!A10</f>
-        <v>9.5643318976463942E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9.5665245850726374E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>10</v>
       </c>
@@ -8396,27 +8399,27 @@
       </c>
       <c r="I14" s="40">
         <f>SUM($C14:H14)*(CL!H$47-1)</f>
-        <v>35.640050001574508</v>
+        <v>36.49119954307362</v>
       </c>
       <c r="J14" s="40">
         <f>SUM($C14:I14)*(CL!I$47-1)</f>
-        <v>15.919752817566041</v>
+        <v>16.198429861567419</v>
       </c>
       <c r="K14" s="40">
         <f>SUM($C14:J14)*(CL!J$47-1)</f>
-        <v>7.009401446473591</v>
+        <v>7.0847380691140014</v>
       </c>
       <c r="L14" s="40">
         <f>SUM($C14:K14)*(CL!K$47-1)</f>
-        <v>3.0667233611117788</v>
+        <v>3.0786681034720735</v>
       </c>
       <c r="M14" s="40">
         <f>SUM($C14:L14)*(CL!L$47-1)</f>
-        <v>1.338027741867033</v>
+        <v>1.3340756688328486</v>
       </c>
       <c r="N14" s="40">
         <f>SUM($C14:M14)*(CL!M$47-1)</f>
-        <v>1.0326862033975999</v>
+        <v>1.0172453763070934</v>
       </c>
       <c r="O14" s="40"/>
       <c r="P14" s="41">
@@ -8429,18 +8432,18 @@
       </c>
       <c r="R14" s="43">
         <f t="shared" si="0"/>
-        <v>64.006641571990713</v>
+        <v>65.204356622367186</v>
       </c>
       <c r="S14" s="43">
         <f t="shared" si="1"/>
-        <v>1436.0066415719907</v>
+        <v>1437.2043566223672</v>
       </c>
       <c r="T14" s="42">
         <f>S14/Data!A11</f>
-        <v>9.8201917634684444E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9.828382388171833E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>11</v>
       </c>
@@ -8471,27 +8474,27 @@
       </c>
       <c r="I15" s="40">
         <f>SUM($C15:H15)*(CL!H$47-1)</f>
-        <v>40.011372281329798</v>
+        <v>40.966916989333839</v>
       </c>
       <c r="J15" s="40">
         <f>SUM($C15:I15)*(CL!I$47-1)</f>
-        <v>17.872341834039055</v>
+        <v>18.185199165981832</v>
       </c>
       <c r="K15" s="40">
         <f>SUM($C15:J15)*(CL!J$47-1)</f>
-        <v>7.8691183298496066</v>
+        <v>7.953695137535072</v>
       </c>
       <c r="L15" s="40">
         <f>SUM($C15:K15)*(CL!K$47-1)</f>
-        <v>3.4428630173042287</v>
+        <v>3.4562728058247609</v>
       </c>
       <c r="M15" s="40">
         <f>SUM($C15:L15)*(CL!L$47-1)</f>
-        <v>1.502139477925081</v>
+        <v>1.4977026753547484</v>
       </c>
       <c r="N15" s="40">
         <f>SUM($C15:M15)*(CL!M$47-1)</f>
-        <v>1.1593471987864505</v>
+        <v>1.1420125238625205</v>
       </c>
       <c r="O15" s="40"/>
       <c r="P15" s="41">
@@ -8504,18 +8507,18 @@
       </c>
       <c r="R15" s="43">
         <f t="shared" si="0"/>
-        <v>163.13568252179016</v>
+        <v>164.48029968044852</v>
       </c>
       <c r="S15" s="43">
         <f t="shared" si="1"/>
-        <v>1612.1356825217902</v>
+        <v>1613.4802996804485</v>
       </c>
       <c r="T15" s="42">
         <f>S15/Data!A12</f>
-        <v>9.7877219508335264E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9.7958854937796644E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>12</v>
       </c>
@@ -8546,27 +8549,27 @@
       </c>
       <c r="I16" s="40">
         <f>SUM($C16:H16)*(CL!H$47-1)</f>
-        <v>36.621284385209435</v>
+        <v>37.495867597415995</v>
       </c>
       <c r="J16" s="40">
         <f>SUM($C16:I16)*(CL!I$47-1)</f>
-        <v>16.358052114084273</v>
+        <v>16.644401636028075</v>
       </c>
       <c r="K16" s="40">
         <f>SUM($C16:J16)*(CL!J$47-1)</f>
-        <v>7.2023828173660682</v>
+        <v>7.2797935921044257</v>
       </c>
       <c r="L16" s="40">
         <f>SUM($C16:K16)*(CL!K$47-1)</f>
-        <v>3.1511557456591182</v>
+        <v>3.1634293481615017</v>
       </c>
       <c r="M16" s="40">
         <f>SUM($C16:L16)*(CL!L$47-1)</f>
-        <v>1.3748660410983562</v>
+        <v>1.3708051604180655</v>
       </c>
       <c r="N16" s="40">
         <f>SUM($C16:M16)*(CL!M$47-1)</f>
-        <v>1.0611179034158198</v>
+        <v>1.0452519627114916</v>
       </c>
       <c r="O16" s="40"/>
       <c r="P16" s="41">
@@ -8579,18 +8582,18 @@
       </c>
       <c r="R16" s="43">
         <f t="shared" si="0"/>
-        <v>328.54247532576755</v>
+        <v>329.77316561577413</v>
       </c>
       <c r="S16" s="43">
         <f t="shared" si="1"/>
-        <v>1475.5424753257676</v>
+        <v>1476.7731656157741</v>
       </c>
       <c r="T16" s="42">
         <f>S16/Data!A13</f>
-        <v>9.276640735104788E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9.2843780058831524E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>13</v>
       </c>
@@ -8621,27 +8624,27 @@
       </c>
       <c r="I17" s="40">
         <f>SUM($C17:H17)*(CL!H$47-1)</f>
-        <v>38.303864269941577</v>
+        <v>39.218630565431191</v>
       </c>
       <c r="J17" s="40">
         <f>SUM($C17:I17)*(CL!I$47-1)</f>
-        <v>17.109629506920736</v>
+        <v>17.409135474732391</v>
       </c>
       <c r="K17" s="40">
         <f>SUM($C17:J17)*(CL!J$47-1)</f>
-        <v>7.5332992408090158</v>
+        <v>7.6142666852443242</v>
       </c>
       <c r="L17" s="40">
         <f>SUM($C17:K17)*(CL!K$47-1)</f>
-        <v>3.2959368848330777</v>
+        <v>3.3087744030208448</v>
       </c>
       <c r="M17" s="40">
         <f>SUM($C17:L17)*(CL!L$47-1)</f>
-        <v>1.4380348235097051</v>
+        <v>1.4337873640061516</v>
       </c>
       <c r="N17" s="40">
         <f>SUM($C17:M17)*(CL!M$47-1)</f>
-        <v>1.1098713993564948</v>
+        <v>1.0932764915192648</v>
       </c>
       <c r="O17" s="40"/>
       <c r="P17" s="41">
@@ -8654,18 +8657,18 @@
       </c>
       <c r="R17" s="43">
         <f t="shared" si="0"/>
-        <v>705.33687767211836</v>
+        <v>706.6241125307015</v>
       </c>
       <c r="S17" s="43">
         <f t="shared" si="1"/>
-        <v>1543.3368776721184</v>
+        <v>1544.6241125307015</v>
       </c>
       <c r="T17" s="42">
         <f>S17/Data!A14</f>
-        <v>9.0491754774090785E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9.0567230286174236E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>14</v>
       </c>
@@ -8696,27 +8699,27 @@
       </c>
       <c r="I18" s="40">
         <f>SUM($C18:H18)*(CL!H$47-1)</f>
-        <v>27.460658531999417</v>
+        <v>28.116469253862668</v>
       </c>
       <c r="J18" s="40">
         <f>SUM($C18:I18)*(CL!I$47-1)</f>
-        <v>12.266169548519249</v>
+        <v>12.480890210967557</v>
       </c>
       <c r="K18" s="40">
         <f>SUM($C18:J18)*(CL!J$47-1)</f>
-        <v>5.4007438156458969</v>
+        <v>5.4587906834025661</v>
       </c>
       <c r="L18" s="40">
         <f>SUM($C18:K18)*(CL!K$47-1)</f>
-        <v>2.3629103502345163</v>
+        <v>2.3721137742250633</v>
       </c>
       <c r="M18" s="40">
         <f>SUM($C18:L18)*(CL!L$47-1)</f>
-        <v>1.0309503753257812</v>
+        <v>1.0279053030523007</v>
       </c>
       <c r="N18" s="40">
         <f>SUM($C18:M18)*(CL!M$47-1)</f>
-        <v>0.79568471988550982</v>
+        <v>0.78378756260976801</v>
       </c>
       <c r="O18" s="40"/>
       <c r="P18" s="41">
@@ -8729,18 +8732,18 @@
       </c>
       <c r="R18" s="43">
         <f t="shared" si="0"/>
-        <v>829.44311756435809</v>
+        <v>830.36595701086799</v>
       </c>
       <c r="S18" s="43">
         <f t="shared" si="1"/>
-        <v>1106.4431175643581</v>
+        <v>1107.365957010868</v>
       </c>
       <c r="T18" s="42">
         <f>S18/Data!A15</f>
-        <v>6.5497135947691826E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>6.5551764459294851E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>15</v>
       </c>
@@ -8771,27 +8774,27 @@
       </c>
       <c r="I19" s="40">
         <f>SUM($C19:H19)*(CL!H$47-1)</f>
-        <v>18.259458951677889</v>
+        <v>18.695528208428534</v>
       </c>
       <c r="J19" s="40">
         <f>SUM($C19:I19)*(CL!I$47-1)</f>
-        <v>8.1561634475923466</v>
+        <v>8.298937996042568</v>
       </c>
       <c r="K19" s="40">
         <f>SUM($C19:J19)*(CL!J$47-1)</f>
-        <v>3.5911250961225334</v>
+        <v>3.6297222913733784</v>
       </c>
       <c r="L19" s="40">
         <f>SUM($C19:K19)*(CL!K$47-1)</f>
-        <v>1.5711737027837598</v>
+        <v>1.5772933500010489</v>
       </c>
       <c r="M19" s="40">
         <f>SUM($C19:L19)*(CL!L$47-1)</f>
-        <v>0.68551145769290456</v>
+        <v>0.68348669298750886</v>
       </c>
       <c r="N19" s="40">
         <f>SUM($C19:M19)*(CL!M$47-1)</f>
-        <v>0.52907589467662142</v>
+        <v>0.52116509914107634</v>
       </c>
       <c r="O19" s="40"/>
       <c r="P19" s="41">
@@ -8804,18 +8807,18 @@
       </c>
       <c r="R19" s="43">
         <f>S19-P19</f>
-        <v>719.70896575516031</v>
+        <v>720.3225908425884</v>
       </c>
       <c r="S19" s="43">
         <f>SUM(C19:O19)</f>
-        <v>735.70896575516031</v>
+        <v>736.3225908425884</v>
       </c>
       <c r="T19" s="48">
         <f>S19/Data!A16</f>
-        <v>4.1464744730607017E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>4.1499328796854446E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -8836,7 +8839,7 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
     </row>
-    <row r="21" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -8856,19 +8859,19 @@
       <c r="Q21" s="6"/>
       <c r="R21" s="44">
         <f>SUM(R4:R19)</f>
-        <v>2860.8008524990273</v>
+        <v>2871.6244870629271</v>
       </c>
       <c r="S21" s="3"/>
     </row>
-    <row r="22" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="45"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
     </row>
-    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C25" s="39"/>
       <c r="D25" s="39"/>
       <c r="E25" s="39"/>
@@ -8888,7 +8891,7 @@
       <c r="S25" s="43"/>
       <c r="T25" s="46"/>
     </row>
-    <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C26" s="39"/>
       <c r="D26" s="39"/>
       <c r="E26" s="39"/>
@@ -8908,7 +8911,7 @@
       <c r="S26" s="43"/>
       <c r="T26" s="46"/>
     </row>
-    <row r="27" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C27" s="39"/>
       <c r="D27" s="39"/>
       <c r="E27" s="39"/>
@@ -8928,7 +8931,7 @@
       <c r="S27" s="43"/>
       <c r="T27" s="46"/>
     </row>
-    <row r="28" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C28" s="39"/>
       <c r="D28" s="39"/>
       <c r="E28" s="39"/>
@@ -8948,7 +8951,7 @@
       <c r="S28" s="43"/>
       <c r="T28" s="46"/>
     </row>
-    <row r="29" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C29" s="39"/>
       <c r="D29" s="39"/>
       <c r="E29" s="39"/>
@@ -8968,7 +8971,7 @@
       <c r="S29" s="43"/>
       <c r="T29" s="46"/>
     </row>
-    <row r="30" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C30" s="39"/>
       <c r="D30" s="39"/>
       <c r="E30" s="39"/>
@@ -8988,7 +8991,7 @@
       <c r="S30" s="43"/>
       <c r="T30" s="46"/>
     </row>
-    <row r="31" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C31" s="39"/>
       <c r="D31" s="39"/>
       <c r="E31" s="39"/>
@@ -9008,7 +9011,7 @@
       <c r="S31" s="43"/>
       <c r="T31" s="46"/>
     </row>
-    <row r="32" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C32" s="39"/>
       <c r="D32" s="39"/>
       <c r="E32" s="39"/>
@@ -9028,7 +9031,7 @@
       <c r="S32" s="43"/>
       <c r="T32" s="46"/>
     </row>
-    <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C33" s="39"/>
       <c r="D33" s="39"/>
       <c r="E33" s="39"/>
@@ -9048,7 +9051,7 @@
       <c r="S33" s="43"/>
       <c r="T33" s="46"/>
     </row>
-    <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C34" s="39"/>
       <c r="D34" s="39"/>
       <c r="E34" s="39"/>
@@ -9068,7 +9071,7 @@
       <c r="S34" s="43"/>
       <c r="T34" s="46"/>
     </row>
-    <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C35" s="39"/>
       <c r="D35" s="39"/>
       <c r="E35" s="39"/>
@@ -9088,7 +9091,7 @@
       <c r="S35" s="43"/>
       <c r="T35" s="46"/>
     </row>
-    <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C36" s="39"/>
       <c r="D36" s="39"/>
       <c r="E36" s="39"/>
@@ -9108,7 +9111,7 @@
       <c r="S36" s="43"/>
       <c r="T36" s="46"/>
     </row>
-    <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C37" s="39"/>
       <c r="D37" s="39"/>
       <c r="E37" s="39"/>
@@ -9128,7 +9131,7 @@
       <c r="S37" s="43"/>
       <c r="T37" s="46"/>
     </row>
-    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C38" s="39"/>
       <c r="D38" s="39"/>
       <c r="E38" s="39"/>
@@ -9148,7 +9151,7 @@
       <c r="S38" s="43"/>
       <c r="T38" s="46"/>
     </row>
-    <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C39" s="39"/>
       <c r="D39" s="39"/>
       <c r="E39" s="39"/>
@@ -9168,7 +9171,7 @@
       <c r="S39" s="43"/>
       <c r="T39" s="46"/>
     </row>
-    <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C40" s="39"/>
       <c r="D40" s="39"/>
       <c r="E40" s="39"/>
@@ -9188,13 +9191,13 @@
       <c r="S40" s="43"/>
       <c r="T40" s="46"/>
     </row>
-    <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="P41" s="6"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="46"/>
       <c r="S41" s="3"/>
     </row>
-    <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="45"/>
       <c r="P42" s="6"/>
       <c r="Q42" s="43"/>
@@ -9203,57 +9206,57 @@
       <c r="T42" s="47"/>
       <c r="U42" s="47"/>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" t="str">
-        <f t="shared" ref="C60:O60" si="2">IF(C42&gt;0,C21/C42,"")</f>
+        <f t="shared" ref="C60:O60" si="3">IF(C42&gt;0,C21/C42,"")</f>
         <v/>
       </c>
       <c r="D60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>

--- a/static/output/Excel/LRcountsxl2-sol2.xlsx
+++ b/static/output/Excel/LRcountsxl2-sol2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bavanzi/Dropbox/Mac (3)/Documents/GitHub/ACTL20004-ACTL90021-Tutorials/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bavanzi/Dropbox/Mac (3)/Documents/GitHub/ACTL20004-ACTL90021-2024/static/output/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402B2BD2-C14B-444E-9717-D77A760076D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9846B1F8-F12F-2842-B026-8417A13EFC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4880" yWindow="500" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4880" yWindow="760" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -7499,7 +7499,7 @@
   <dimension ref="A1:U60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4:P9"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
